--- a/Zara/ZaraConfig.xlsx
+++ b/Zara/ZaraConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>RequestedLink</t>
   </si>
@@ -33,13 +33,19 @@
     <t>https://www.zara.com/tr/tr/kadin-ezel-fiyatlar-l1314.html?v1=1901318</t>
   </si>
   <si>
-    <t>KadinPantolonJean</t>
-  </si>
-  <si>
-    <t>KadinEtek</t>
-  </si>
-  <si>
-    <t>https://www.zara.com/tr/tr/kadin-ezel-fiyatlar-l1314.html?v1=1899816</t>
+    <t>https://www.zara.com/tr/tr/kadin-chantalar-l1024.html?v1=1873789</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/tr/tr/kadin-etekler-l1299.html?v1=1873394</t>
+  </si>
+  <si>
+    <t>Kadin Çanta</t>
+  </si>
+  <si>
+    <t>Ä Etek</t>
+  </si>
+  <si>
+    <t>Ü</t>
   </si>
 </sst>
 </file>
@@ -357,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,24 +389,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>5</v>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
